--- a/蜜钥app20190428问题修改记录.xlsx
+++ b/蜜钥app20190428问题修改记录.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/Desktop/蜜钥app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shilei-resource\sihuo\UPLAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{96F36ADD-21B8-C142-8EBC-3CB1D2B91629}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="7660" windowWidth="27640" windowHeight="25420" xr2:uid="{F22B85EC-6AC0-AA4B-8004-B4247CBF58F1}"/>
+    <workbookView xWindow="4560" yWindow="7656" windowWidth="27636" windowHeight="25416"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +74,7 @@
   </si>
   <si>
     <t>进行中</t>
-    <rPh sb="0" eb="57">
+    <rPh sb="0" eb="3">
       <t>dai jin xing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,7 +92,7 @@
   </si>
   <si>
     <t>增加退出功能</t>
-    <rPh sb="0" eb="171">
+    <rPh sb="0" eb="6">
       <t>tui chu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,7 +154,7 @@
   </si>
   <si>
     <t>刘森/石磊</t>
-    <rPh sb="0" eb="71">
+    <rPh sb="0" eb="5">
       <t>da lu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,7 +214,7 @@
   </si>
   <si>
     <t>蜜钥app问题汇总</t>
-    <rPh sb="0" eb="113">
+    <rPh sb="0" eb="9">
       <t>suo you</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,7 +243,7 @@
   </si>
   <si>
     <t>刘森/石磊</t>
-    <rPh sb="0" eb="7">
+    <rPh sb="0" eb="5">
       <t>bu hui</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,14 +254,14 @@
   </si>
   <si>
     <t>负责人</t>
-    <rPh sb="0" eb="45">
+    <rPh sb="0" eb="3">
       <t>tui chu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公众号设置绑定手机号收不到验证码问题</t>
-    <rPh sb="0" eb="430">
+    <rPh sb="0" eb="18">
       <t>ding dan shu hui fen e</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -465,22 +465,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -495,9 +483,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,6 +508,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -838,32 +838,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75066095-739D-5745-841C-9D73ABDB0157}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="30.81640625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="5" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" customWidth="1"/>
+    <col min="7" max="7" width="29.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="62" customHeight="1">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:7" ht="61.95" customHeight="1">
+      <c r="A4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
@@ -890,57 +890,57 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
-        <v>43583</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="5">
+        <v>43583</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>43589</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6">
-        <v>43583</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="5">
+        <v>43583</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>43584</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="42" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="17">
-        <v>43583</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="12">
+        <v>43583</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="15">
         <v>43584</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -948,20 +948,20 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="47" customHeight="1">
+    <row r="9" spans="1:7" ht="46.95" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18">
-        <v>43583</v>
-      </c>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="13">
+        <v>43583</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="15">
         <v>43589</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -973,16 +973,16 @@
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="17">
-        <v>43583</v>
-      </c>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="12">
+        <v>43583</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="15">
         <v>43585</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -991,19 +991,19 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="17">
-        <v>43583</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="12">
+        <v>43583</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="15">
         <v>43585</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1012,17 +1012,17 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="17">
-        <v>43583</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="12">
+        <v>43583</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="15">
         <v>43585</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1031,19 +1031,19 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="6">
-        <v>43583</v>
-      </c>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="5">
+        <v>43583</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="15">
         <v>43585</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1052,17 +1052,17 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="6">
-        <v>43583</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="5">
+        <v>43583</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="15">
         <v>43585</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1071,38 +1071,38 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="6">
-        <v>43583</v>
-      </c>
-      <c r="D15" s="24" t="s">
+      <c r="C15" s="5">
+        <v>43583</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="16">
         <v>43588</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="6">
-        <v>43583</v>
-      </c>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="5">
+        <v>43583</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="15">
         <v>43588</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1111,36 +1111,36 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="6">
-        <v>43583</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="5">
+        <v>43583</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>43588</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="19">
-        <v>43583</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="14">
+        <v>43583</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>43588</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1149,14 +1149,14 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="19">
-        <v>43583</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="14">
+        <v>43583</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="1"/>
